--- a/TextToSpeech/Resources/InputSamples/ExcelSampleSave1.xlsx
+++ b/TextToSpeech/Resources/InputSamples/ExcelSampleSave1.xlsx
@@ -35,7 +35,7 @@
     <t>row2</t>
   </si>
   <si>
-    <t>row2 col1 test save</t>
+    <t>row2 col1</t>
   </si>
   <si>
     <t>row2 col2</t>
